--- a/Base/Teams/Vikings/Distributions.xlsx
+++ b/Base/Teams/Vikings/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.7976840548734081, 0.6303246519501411, 0.6646025798697581, 2.9057725818545133)</t>
-  </si>
-  <si>
-    <t>JSU(-1.1463136840969543, 1.1727777733061353, 2.7128585545941, 5.114228504154509)</t>
-  </si>
-  <si>
-    <t>MIE(10.722836236303376, 5.865648081000883, -10.075957673834967, 12.312050400066655)</t>
-  </si>
-  <si>
-    <t>EXN(4.045370096512692, 2.3776130935023607, 2.4276264876171334)</t>
+    <t>NIG(0.8080066826315555, 0.6215487750042737, 0.782496592585249, 2.9777541793440783)</t>
+  </si>
+  <si>
+    <t>NIG(1.5587776180831914, 1.1812542410549782, 3.291643814789671, 6.63697551405021)</t>
+  </si>
+  <si>
+    <t>MIE(10.720906307688107, 5.921097231636256, -10.123067574833264, 12.348964034806233)</t>
+  </si>
+  <si>
+    <t>EXN(3.8008014316855077, 2.696047900087758, 2.4920936521089403)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Vikings/Distributions.xlsx
+++ b/Base/Teams/Vikings/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.8080066826315555, 0.6215487750042737, 0.782496592585249, 2.9777541793440783)</t>
-  </si>
-  <si>
-    <t>NIG(1.5587776180831914, 1.1812542410549782, 3.291643814789671, 6.63697551405021)</t>
-  </si>
-  <si>
-    <t>MIE(10.720906307688107, 5.921097231636256, -10.123067574833264, 12.348964034806233)</t>
-  </si>
-  <si>
-    <t>EXN(3.8008014316855077, 2.696047900087758, 2.4920936521089403)</t>
+    <t>NIG(0.8644080082785512, 0.6696657573405245, 0.7425248273359284, 3.1606896692062696)</t>
+  </si>
+  <si>
+    <t>JSU(-1.2915927192390875, 1.309534380286125, 1.8199811698037167, 6.101416012982963)</t>
+  </si>
+  <si>
+    <t>EXN(2.2158431998352235, 0.7959555729601491, 1.8192212856747798)</t>
+  </si>
+  <si>
+    <t>JSU(-1.6766275585473513, 1.2662011397194, 1.5031266593958772, 4.445613733018956)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Vikings/Distributions.xlsx
+++ b/Base/Teams/Vikings/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.8644080082785512, 0.6696657573405245, 0.7425248273359284, 3.1606896692062696)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2915927192390875, 1.309534380286125, 1.8199811698037167, 6.101416012982963)</t>
-  </si>
-  <si>
-    <t>EXN(2.2158431998352235, 0.7959555729601491, 1.8192212856747798)</t>
-  </si>
-  <si>
-    <t>JSU(-1.6766275585473513, 1.2662011397194, 1.5031266593958772, 4.445613733018956)</t>
+    <t>NIG(0.9292377710648146, 0.7150252303766779, 0.6414142262493641, 3.195498068995942)</t>
+  </si>
+  <si>
+    <t>NIG(1.618113666572148, 1.2352698058160239, 3.229232644310634, 6.646864796746801)</t>
+  </si>
+  <si>
+    <t>NIG(0.9547437517562087, 0.6566310081163165, 1.9128786818540209, 3.047967231170968)</t>
+  </si>
+  <si>
+    <t>NIG(1.9151233079232313, 1.6247049305186612, 3.1078689571255174, 5.438917940198555)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Vikings/Distributions.xlsx
+++ b/Base/Teams/Vikings/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.9292377710648146, 0.7150252303766779, 0.6414142262493641, 3.195498068995942)</t>
-  </si>
-  <si>
-    <t>NIG(1.618113666572148, 1.2352698058160239, 3.229232644310634, 6.646864796746801)</t>
-  </si>
-  <si>
-    <t>NIG(0.9547437517562087, 0.6566310081163165, 1.9128786818540209, 3.047967231170968)</t>
-  </si>
-  <si>
-    <t>NIG(1.9151233079232313, 1.6247049305186612, 3.1078689571255174, 5.438917940198555)</t>
+    <t>NIG(0.9008665625316319, 0.6854350136727263, 0.6841829112431119, 3.2037666687489232)</t>
+  </si>
+  <si>
+    <t>NIG(1.7811383103389349, 1.35683092714103, 2.827121312230168, 6.860218842387461)</t>
+  </si>
+  <si>
+    <t>NIG(0.9003714525874157, 0.628067454188995, 1.97043778914033, 2.9684966470693817)</t>
+  </si>
+  <si>
+    <t>NIG(2.0656295765146866, 1.7350338020771925, 2.8783357149566995, 5.671768437567078)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Vikings/Distributions.xlsx
+++ b/Base/Teams/Vikings/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.9008665625316319, 0.6854350136727263, 0.6841829112431119, 3.2037666687489232)</t>
-  </si>
-  <si>
-    <t>NIG(1.7811383103389349, 1.35683092714103, 2.827121312230168, 6.860218842387461)</t>
-  </si>
-  <si>
-    <t>NIG(0.9003714525874157, 0.628067454188995, 1.97043778914033, 2.9684966470693817)</t>
-  </si>
-  <si>
-    <t>NIG(2.0656295765146866, 1.7350338020771925, 2.8783357149566995, 5.671768437567078)</t>
+    <t>NIG(0.8901190770986138, 0.6722003372141275, 0.7041564859437843, 3.266953414790838)</t>
+  </si>
+  <si>
+    <t>NIG(1.7263983069214293, 1.340289590232969, 2.7773969637545175, 6.792028590279779)</t>
+  </si>
+  <si>
+    <t>NIG(0.9473291892256073, 0.6570264562913458, 1.9042417395327373, 3.0015514266393515)</t>
+  </si>
+  <si>
+    <t>NIG(2.139844638188663, 1.7939016248203832, 2.7858736266966524, 5.667535372604149)</t>
   </si>
 </sst>
 </file>
